--- a/SE5LITE/config.xlsx
+++ b/SE5LITE/config.xlsx
@@ -5,12 +5,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17850" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="17415" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pin" sheetId="1" r:id="rId1"/>
     <sheet name="power" sheetId="2" r:id="rId2"/>
     <sheet name="adc2ver" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pin!$D$1:$D$47</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="147">
   <si>
     <t>Pin number</t>
   </si>
@@ -91,6 +92,9 @@
     <t>PG_VDDC</t>
   </si>
   <si>
+    <t>INPUT</t>
+  </si>
+  <si>
     <t>PH0</t>
   </si>
   <si>
@@ -157,9 +161,6 @@
     <t>PG_VDD_TPU</t>
   </si>
   <si>
-    <t>INPUT</t>
-  </si>
-  <si>
     <t>PA6</t>
   </si>
   <si>
@@ -361,6 +362,12 @@
     <t>VDD-CORE</t>
   </si>
   <si>
+    <t>CHECK-VDD-CORE</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
     <t>VDD-3.3V</t>
   </si>
   <si>
@@ -383,9 +390,6 @@
   </si>
   <si>
     <t>CHECK-VDD-TPU</t>
-  </si>
-  <si>
-    <t>CHECK</t>
   </si>
   <si>
     <t>check this line</t>
@@ -465,11 +469,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -499,13 +503,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +576,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -534,118 +650,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -674,7 +678,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +708,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,12 +756,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,7 +768,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,121 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,8 +890,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,11 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,6 +946,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,170 +978,152 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1545,1188 +1548,1182 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.88" style="11" customWidth="true"/>
-    <col min="2" max="2" width="16.38" style="13" customWidth="true"/>
-    <col min="3" max="3" width="21.3733333333333" style="11" customWidth="true"/>
-    <col min="4" max="4" width="8.78666666666667" style="11" customWidth="true"/>
-    <col min="5" max="5" width="9.13333333333333" style="11" customWidth="true"/>
-    <col min="6" max="6" width="12.3666666666667" style="11" customWidth="true"/>
-    <col min="7" max="7" width="14.2133333333333" style="11" customWidth="true"/>
-    <col min="8" max="8" width="15.9466666666667" style="11" customWidth="true"/>
-    <col min="9" max="9" width="9.13333333333333" style="11" customWidth="true"/>
-    <col min="10" max="10" width="23.2733333333333" style="11" customWidth="true"/>
-    <col min="11" max="1022" width="9" style="11" customWidth="true"/>
-    <col min="1023" max="1023" width="11.52" style="11"/>
-    <col min="1024" max="1025" width="11.52" style="5"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.88" style="10" customWidth="true"/>
+    <col min="2" max="2" width="16.38" style="12" customWidth="true"/>
+    <col min="3" max="3" width="21.3733333333333" style="10" customWidth="true"/>
+    <col min="4" max="4" width="8.78666666666667" style="10" customWidth="true"/>
+    <col min="5" max="5" width="9.13333333333333" style="10" customWidth="true"/>
+    <col min="6" max="6" width="12.3666666666667" style="10" customWidth="true"/>
+    <col min="7" max="7" width="14.2133333333333" style="10" customWidth="true"/>
+    <col min="8" max="8" width="15.9466666666667" style="10" customWidth="true"/>
+    <col min="9" max="9" width="9.13333333333333" style="10" customWidth="true"/>
+    <col min="10" max="10" width="23.2733333333333" style="10" customWidth="true"/>
+    <col min="11" max="1022" width="9" style="10" customWidth="true"/>
+    <col min="1023" max="1023" width="11.52" style="10"/>
+    <col min="1024" max="1025" width="11.52" style="4"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="17"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17"/>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17"/>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>6</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>6</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="17"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="17"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="17"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="17"/>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>1</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="17"/>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17"/>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17"/>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17"/>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17"/>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17"/>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="17"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="17"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="17"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>1</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>1</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="8" t="s">
+      <c r="F44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="8" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D47">
@@ -2736,14 +2733,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H49">
       <formula1>"LOW,MEDIUM,HIGH,VERY-HIGH"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"PP,OD"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F49">
       <formula1>"NO-PULL,PULL-UP,PULL-DOWN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D49">
       <formula1>"INPUT,OUTPUT,AF,ANALOG,NA"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G49">
-      <formula1>"PP,OD"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1 E1:I1 B2:B37 E2:E49 I2:I49"/>
   </dataValidations>
@@ -2756,388 +2753,402 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.42" style="5" customWidth="true"/>
-    <col min="2" max="2" width="19.4866666666667" style="5" customWidth="true"/>
-    <col min="3" max="3" width="10.7266666666667" style="5" customWidth="true"/>
-    <col min="4" max="4" width="11.8533333333333" style="5" customWidth="true"/>
-    <col min="5" max="5" width="63.42" style="5" customWidth="true"/>
-    <col min="6" max="1020" width="8.67333333333333" style="5" customWidth="true"/>
-    <col min="1021" max="1025" width="11.52" style="5"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="19.42" style="4" customWidth="true"/>
+    <col min="2" max="2" width="19.4866666666667" style="4" customWidth="true"/>
+    <col min="3" max="3" width="10.7266666666667" style="4" customWidth="true"/>
+    <col min="4" max="4" width="11.8533333333333" style="4" customWidth="true"/>
+    <col min="5" max="5" width="63.42" style="4" customWidth="true"/>
+    <col min="6" max="1020" width="8.67333333333333" style="4" customWidth="true"/>
+    <col min="1021" max="1025" width="11.52" style="4"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D14" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D19" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D21" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D22" s="6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="7">
-        <v>29000</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4 D5 D6:D21"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6:C22 C23:C24">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D4 D5 D6 D7:D22"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7:C23 C24:C25">
       <formula1>"ENABLE,FUNCTION,CHECK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3155,7 +3166,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3166,40 +3177,40 @@
     <col min="4" max="5" width="12.5" style="1" customWidth="true"/>
     <col min="6" max="1023" width="8.67333333333333" style="1" customWidth="true"/>
     <col min="1024" max="1025" width="11.52" style="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>10000</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="0">1.8*C2/(C2+B2)</f>
         <v>0</v>
       </c>
@@ -3212,16 +3223,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>10000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>0.163636363636364</v>
       </c>
@@ -3235,16 +3246,16 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>10000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0.415384615384615</v>
       </c>
@@ -3258,16 +3269,16 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5600</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.646153846153846</v>
       </c>
@@ -3281,16 +3292,16 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>10000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -3304,16 +3315,16 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>18000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>1.15714285714286</v>
       </c>
@@ -3334,4 +3345,20 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/SE5LITE/config.xlsx
+++ b/SE5LITE/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17415" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="17850" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pin" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="148">
   <si>
     <t>Pin number</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>USB-5V</t>
+  </si>
+  <si>
+    <t>U5V</t>
   </si>
   <si>
     <t>ASM3142-3.3V</t>
@@ -470,8 +473,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -503,11 +506,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,21 +534,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -541,22 +573,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,59 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,8 +611,44 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -678,7 +681,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,19 +801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,67 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,67 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,15 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -916,36 +910,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,140 +948,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
@@ -1548,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1716,13 +1719,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="16"/>
     </row>
@@ -2736,11 +2739,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G49">
       <formula1>"PP,OD"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D49">
+      <formula1>"INPUT,OUTPUT,AF,ANALOG,NA"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F49">
       <formula1>"NO-PULL,PULL-UP,PULL-DOWN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D49">
-      <formula1>"INPUT,OUTPUT,AF,ANALOG,NA"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1 E1:I1 B2:B37 E2:E49 I2:I49"/>
   </dataValidations>
@@ -2755,8 +2758,8 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -3108,10 +3111,10 @@
         <v>138</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>41</v>
@@ -3133,7 +3136,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>71</v>
@@ -3182,22 +3185,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/SE5LITE/config.xlsx
+++ b/SE5LITE/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17850" tabRatio="500"/>
+    <workbookView windowHeight="17415" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pin" sheetId="1" r:id="rId1"/>
@@ -506,23 +506,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,31 +533,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -573,61 +558,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,12 +601,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -681,7 +681,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,19 +777,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +819,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,121 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,11 +890,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,17 +973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -939,188 +987,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
@@ -1551,8 +1551,8 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>16</v>
@@ -2739,11 +2739,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G49">
       <formula1>"PP,OD"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F49">
+      <formula1>"NO-PULL,PULL-UP,PULL-DOWN"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D49">
       <formula1>"INPUT,OUTPUT,AF,ANALOG,NA"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F49">
-      <formula1>"NO-PULL,PULL-UP,PULL-DOWN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1 E1:I1 B2:B37 E2:E49 I2:I49"/>
   </dataValidations>
